--- a/wild_reports/2023_24/tr0714t005_wild_report.xlsx
+++ b/wild_reports/2023_24/tr0714t005_wild_report.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,55 +571,6 @@
       <c r="L2" s="2" t="inlineStr"/>
       <c r="M2" s="2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2023/24</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Registered Trapline</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>TR0714T005</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>714</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
